--- a/modules/core/src/main/java/com/jeesite/modules/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/db/InitCoreData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="763" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="763"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15884" uniqueCount="7343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15889" uniqueCount="7350">
   <si>
     <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -23076,6 +23076,57 @@
   </si>
   <si>
     <t>icon-people</t>
+  </si>
+  <si>
+    <t>devtools</t>
+  </si>
+  <si>
+    <t>devtools</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>com.jeesite.modules.gen.web</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.GenTableController</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.0.0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码生成器、组件演示示例、API接口文档等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devtools</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -23228,7 +23279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -23319,6 +23370,9 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -23661,9 +23715,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -25292,11 +25346,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -25343,19 +25397,36 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="14" t="s">
+        <v>7344</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>7345</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>7348</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>7346</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>7347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -27726,15 +27797,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L45" sqref="L45"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="7.375" style="25" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="25" customWidth="1"/>
     <col min="3" max="3" width="16.125" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="10" customWidth="1"/>
     <col min="5" max="5" width="26.75" style="10" customWidth="1"/>
@@ -29212,7 +29283,7 @@
         <v>77</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>28</v>
+        <v>7343</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>248</v>
@@ -29244,7 +29315,7 @@
         <v>77</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>28</v>
+        <v>7343</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>238</v>
@@ -29282,7 +29353,7 @@
         <v>77</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>28</v>
+        <v>7343</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>249</v>
@@ -29314,7 +29385,7 @@
         <v>77</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>28</v>
+        <v>7343</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>238</v>
@@ -29349,7 +29420,7 @@
         <v>77</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>28</v>
+        <v>7343</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>238</v>
@@ -29383,8 +29454,8 @@
       <c r="A48" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B48" s="25" t="s">
-        <v>28</v>
+      <c r="B48" s="32" t="s">
+        <v>7349</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>238</v>
@@ -29419,7 +29490,7 @@
         <v>77</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>28</v>
+        <v>7343</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>251</v>
@@ -29448,7 +29519,7 @@
         <v>77</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>28</v>
+        <v>7343</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>238</v>
@@ -29480,7 +29551,7 @@
         <v>77</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>28</v>
+        <v>7343</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>238</v>
@@ -29512,7 +29583,7 @@
         <v>77</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>28</v>
+        <v>7343</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>250</v>
@@ -29541,7 +29612,7 @@
         <v>77</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>28</v>
+        <v>7343</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>238</v>
@@ -29573,7 +29644,7 @@
         <v>77</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>28</v>
+        <v>7343</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>238</v>
@@ -29605,7 +29676,7 @@
         <v>77</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>28</v>
+        <v>7343</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>238</v>
@@ -29637,7 +29708,7 @@
         <v>77</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>28</v>
+        <v>7343</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>310</v>
@@ -29666,7 +29737,7 @@
         <v>77</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>28</v>
+        <v>7343</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>83</v>

--- a/modules/core/src/main/java/com/jeesite/modules/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/db/InitCoreData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16046" uniqueCount="7396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16106" uniqueCount="7415">
   <si>
     <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -21752,10 +21752,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>错误日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>s</t>
     </r>
@@ -23233,10 +23229,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>任务完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>任务停止</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -23384,12 +23376,129 @@
     <t>错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>任务结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JeeSite社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官方网站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.oschina.net/question/tag/jeesite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>http</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>://jeesite.com</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开源问答</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者博客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://my.oschina.net/thinkgem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官方论坛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>http</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>://jeesite.net</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>__id__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jeesite</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>access</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>loginLogout</t>
+  </si>
+  <si>
+    <t>修改日志</t>
+  </si>
+  <si>
+    <t>查询日志</t>
+  </si>
+  <si>
+    <t>登录登出</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23514,6 +23623,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -23532,10 +23658,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -23631,9 +23758,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -24000,7 +24134,7 @@
         <v>37</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7196</v>
+        <v>7195</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -24011,10 +24145,10 @@
         <v>327</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7193</v>
+        <v>7192</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7170</v>
+        <v>7169</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>328</v>
@@ -24073,13 +24207,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>7317</v>
+        <v>7316</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7316</v>
+        <v>7315</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7192</v>
+        <v>7191</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>59</v>
@@ -24090,7 +24224,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>7318</v>
+        <v>7317</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>43</v>
@@ -24127,7 +24261,7 @@
         <v>65</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7311</v>
+        <v>7310</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>57</v>
@@ -24144,10 +24278,10 @@
         <v>66</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7312</v>
+        <v>7311</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7314</v>
+        <v>7313</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>59</v>
@@ -24161,7 +24295,7 @@
         <v>67</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7313</v>
+        <v>7312</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>68</v>
@@ -24178,16 +24312,16 @@
         <v>70</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7159</v>
+        <v>7158</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>288</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>7169</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>7170</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>7171</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -24322,16 +24456,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>7199</v>
+        <v>7198</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7239</v>
+        <v>7238</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>7198</v>
+        <v>7197</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>15</v>
@@ -24340,16 +24474,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>7204</v>
+        <v>7203</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7203</v>
+        <v>7202</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7203</v>
+        <v>7202</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>80</v>
@@ -24358,16 +24492,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>7205</v>
+        <v>7204</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7204</v>
+        <v>7203</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>7200</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>7201</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7202</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>79</v>
@@ -24376,16 +24510,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>7205</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7206</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>7207</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>7208</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7209</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>80</v>
@@ -24418,28 +24552,28 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>7221</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>7222</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>7223</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>7224</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>7224</v>
+        <v>7223</v>
       </c>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>7229</v>
+        <v>7228</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7225</v>
+        <v>7224</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7235</v>
+        <v>7234</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>78</v>
@@ -24448,10 +24582,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>7233</v>
+        <v>7232</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7226</v>
+        <v>7225</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>347</v>
@@ -24463,25 +24597,25 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>7234</v>
+        <v>7233</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7232</v>
+        <v>7231</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7236</v>
+        <v>7235</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7238</v>
+        <v>7237</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>7231</v>
+        <v>7230</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7227</v>
+        <v>7226</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>80</v>
@@ -24493,13 +24627,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>7230</v>
+        <v>7229</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7228</v>
+        <v>7227</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7237</v>
+        <v>7236</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>130</v>
@@ -24554,1043 +24688,1043 @@
         <v>4</v>
       </c>
       <c r="F1" s="30" t="s">
+        <v>7295</v>
+      </c>
+      <c r="G1" s="30" t="s">
         <v>7296</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="H1" s="30" t="s">
         <v>7297</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="I1" s="30" t="s">
         <v>7298</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="J1" s="2" t="s">
+        <v>7154</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7290</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>7291</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>7314</v>
+      </c>
+      <c r="N1" s="30" t="s">
         <v>7299</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7155</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>7291</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>7292</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>7315</v>
-      </c>
-      <c r="N1" s="30" t="s">
-        <v>7300</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>7308</v>
+        <v>7307</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7246</v>
+        <v>7245</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7305</v>
+        <v>7304</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7148</v>
+        <v>7147</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7290</v>
+        <v>7289</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7214</v>
+        <v>7213</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>7206</v>
+        <v>7205</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>7208</v>
+        <v>7207</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>7295</v>
+        <v>7294</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>7292</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>7293</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>7294</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>7230</v>
+        <v>7229</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>7230</v>
+        <v>7229</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>7307</v>
+        <v>7306</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7246</v>
+        <v>7245</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7304</v>
+        <v>7303</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7148</v>
+        <v>7147</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7290</v>
+        <v>7289</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>7214</v>
+        <v>7213</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>7206</v>
+        <v>7205</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>7208</v>
+        <v>7207</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>7295</v>
+        <v>7294</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>7292</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>7293</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>7294</v>
-      </c>
       <c r="M3" s="1" t="s">
-        <v>7230</v>
+        <v>7229</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>7230</v>
+        <v>7229</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>7306</v>
+        <v>7305</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7246</v>
+        <v>7245</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7303</v>
+        <v>7302</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7148</v>
+        <v>7147</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>7290</v>
+        <v>7289</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>7214</v>
+        <v>7213</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>7206</v>
+        <v>7205</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>7208</v>
+        <v>7207</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>7295</v>
+        <v>7294</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>7292</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>7293</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>7294</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>7231</v>
+        <v>7230</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>7231</v>
+        <v>7230</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>7266</v>
+        <v>7265</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7246</v>
+        <v>7245</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7286</v>
+        <v>7285</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7148</v>
+        <v>7147</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>7289</v>
+        <v>7288</v>
       </c>
       <c r="G5" t="s">
-        <v>7213</v>
+        <v>7212</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>7206</v>
+        <v>7205</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>7208</v>
+        <v>7207</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>7295</v>
+        <v>7294</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>7292</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>7293</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>7294</v>
-      </c>
       <c r="M5" s="1" t="s">
-        <v>7230</v>
+        <v>7229</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>7230</v>
+        <v>7229</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>7265</v>
+        <v>7264</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7246</v>
+        <v>7245</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7285</v>
+        <v>7284</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7148</v>
+        <v>7147</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>7289</v>
+        <v>7288</v>
       </c>
       <c r="G6" t="s">
-        <v>7213</v>
+        <v>7212</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>7206</v>
+        <v>7205</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>7208</v>
+        <v>7207</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>7295</v>
+        <v>7294</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>7292</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>7293</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>7294</v>
-      </c>
       <c r="M6" s="1" t="s">
-        <v>7230</v>
+        <v>7229</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>7230</v>
+        <v>7229</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>7264</v>
+        <v>7263</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7246</v>
+        <v>7245</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7284</v>
+        <v>7283</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7148</v>
+        <v>7147</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>7289</v>
+        <v>7288</v>
       </c>
       <c r="G7" t="s">
-        <v>7213</v>
+        <v>7212</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>7206</v>
+        <v>7205</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>7208</v>
+        <v>7207</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>7295</v>
+        <v>7294</v>
       </c>
       <c r="K7" s="1" t="s">
+        <v>7292</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>7293</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>7294</v>
-      </c>
       <c r="M7" s="1" t="s">
-        <v>7231</v>
+        <v>7230</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>7231</v>
+        <v>7230</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>7263</v>
+        <v>7262</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7246</v>
+        <v>7245</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7283</v>
+        <v>7282</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7148</v>
+        <v>7147</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>7240</v>
+        <v>7239</v>
       </c>
       <c r="G8" t="s">
-        <v>7212</v>
+        <v>7211</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>7206</v>
+        <v>7205</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>7208</v>
+        <v>7207</v>
       </c>
       <c r="J8" s="29" t="s">
-        <v>7295</v>
+        <v>7294</v>
       </c>
       <c r="K8" s="1" t="s">
+        <v>7292</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>7293</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>7294</v>
-      </c>
       <c r="M8" s="1" t="s">
-        <v>7230</v>
+        <v>7229</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>7230</v>
+        <v>7229</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>7262</v>
+        <v>7261</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7246</v>
+        <v>7245</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7282</v>
+        <v>7281</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>7148</v>
+        <v>7147</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>7240</v>
+        <v>7239</v>
       </c>
       <c r="G9" t="s">
-        <v>7212</v>
+        <v>7211</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>7206</v>
+        <v>7205</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>7208</v>
+        <v>7207</v>
       </c>
       <c r="J9" s="29" t="s">
-        <v>7295</v>
+        <v>7294</v>
       </c>
       <c r="K9" s="1" t="s">
+        <v>7292</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>7293</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>7294</v>
-      </c>
       <c r="M9" s="1" t="s">
-        <v>7230</v>
+        <v>7229</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>7230</v>
+        <v>7229</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>7261</v>
+        <v>7260</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7246</v>
+        <v>7245</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7281</v>
+        <v>7280</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7148</v>
+        <v>7147</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>7240</v>
+        <v>7239</v>
       </c>
       <c r="G10" t="s">
-        <v>7212</v>
+        <v>7211</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>7206</v>
+        <v>7205</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>7208</v>
+        <v>7207</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>7295</v>
+        <v>7294</v>
       </c>
       <c r="K10" s="1" t="s">
+        <v>7292</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>7293</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>7294</v>
-      </c>
       <c r="M10" s="1" t="s">
-        <v>7231</v>
+        <v>7230</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>7231</v>
+        <v>7230</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>7260</v>
+        <v>7259</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7246</v>
+        <v>7245</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7280</v>
+        <v>7279</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>7148</v>
+        <v>7147</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>7288</v>
+        <v>7287</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>7214</v>
+        <v>7213</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>7205</v>
+        <v>7204</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>7201</v>
+        <v>7200</v>
       </c>
       <c r="J11" s="29" t="s">
-        <v>7295</v>
+        <v>7294</v>
       </c>
       <c r="K11" s="1" t="s">
+        <v>7292</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>7293</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>7294</v>
-      </c>
       <c r="M11" s="1" t="s">
-        <v>7231</v>
+        <v>7230</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>7301</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>7259</v>
+        <v>7258</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7246</v>
+        <v>7245</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>7279</v>
+        <v>7278</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>7148</v>
+        <v>7147</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>7288</v>
+        <v>7287</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>7214</v>
+        <v>7213</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>7205</v>
+        <v>7204</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>7201</v>
+        <v>7200</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>7295</v>
+        <v>7294</v>
       </c>
       <c r="K12" s="1" t="s">
+        <v>7292</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>7293</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>7294</v>
-      </c>
       <c r="M12" s="1" t="s">
-        <v>7230</v>
+        <v>7229</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>7302</v>
+        <v>7301</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>7258</v>
+        <v>7257</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7246</v>
+        <v>7245</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7278</v>
+        <v>7277</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>7148</v>
+        <v>7147</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>7288</v>
+        <v>7287</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>7214</v>
+        <v>7213</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>7205</v>
+        <v>7204</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>7201</v>
+        <v>7200</v>
       </c>
       <c r="J13" s="29" t="s">
-        <v>7295</v>
+        <v>7294</v>
       </c>
       <c r="K13" s="1" t="s">
+        <v>7292</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>7293</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>7294</v>
-      </c>
       <c r="M13" s="1" t="s">
-        <v>7230</v>
+        <v>7229</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>7302</v>
+        <v>7301</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>7257</v>
+        <v>7256</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7246</v>
+        <v>7245</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>7277</v>
+        <v>7276</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>7148</v>
+        <v>7147</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>7288</v>
+        <v>7287</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>7214</v>
+        <v>7213</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>7205</v>
+        <v>7204</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>7201</v>
+        <v>7200</v>
       </c>
       <c r="J14" s="29" t="s">
-        <v>7295</v>
+        <v>7294</v>
       </c>
       <c r="K14" s="1" t="s">
+        <v>7292</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>7293</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>7294</v>
-      </c>
       <c r="M14" s="1" t="s">
-        <v>7230</v>
+        <v>7229</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>7230</v>
+        <v>7229</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>7256</v>
+        <v>7255</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7246</v>
+        <v>7245</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>7276</v>
+        <v>7275</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>7148</v>
+        <v>7147</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>7288</v>
+        <v>7287</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>7214</v>
+        <v>7213</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>7205</v>
+        <v>7204</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>7201</v>
+        <v>7200</v>
       </c>
       <c r="J15" s="29" t="s">
-        <v>7295</v>
+        <v>7294</v>
       </c>
       <c r="K15" s="1" t="s">
+        <v>7292</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>7293</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>7294</v>
-      </c>
       <c r="M15" s="1" t="s">
-        <v>7230</v>
+        <v>7229</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>7302</v>
+        <v>7301</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>7255</v>
+        <v>7254</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7246</v>
+        <v>7245</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>7275</v>
+        <v>7274</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>7148</v>
+        <v>7147</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>7288</v>
+        <v>7287</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>7214</v>
+        <v>7213</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>7205</v>
+        <v>7204</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>7201</v>
+        <v>7200</v>
       </c>
       <c r="J16" s="29" t="s">
-        <v>7295</v>
+        <v>7294</v>
       </c>
       <c r="K16" s="1" t="s">
+        <v>7292</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>7293</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>7294</v>
-      </c>
       <c r="M16" s="1" t="s">
-        <v>7230</v>
+        <v>7229</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>7302</v>
+        <v>7301</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>7254</v>
+        <v>7253</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7246</v>
+        <v>7245</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>7274</v>
+        <v>7273</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>7148</v>
+        <v>7147</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>7288</v>
+        <v>7287</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>7214</v>
+        <v>7213</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>7205</v>
+        <v>7204</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>7201</v>
+        <v>7200</v>
       </c>
       <c r="J17" s="29" t="s">
-        <v>7295</v>
+        <v>7294</v>
       </c>
       <c r="K17" s="1" t="s">
+        <v>7292</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>7293</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>7294</v>
-      </c>
       <c r="M17" s="1" t="s">
-        <v>7230</v>
+        <v>7229</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>7302</v>
+        <v>7301</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>7253</v>
+        <v>7252</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7246</v>
+        <v>7245</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>7273</v>
+        <v>7272</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>7148</v>
+        <v>7147</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>7288</v>
+        <v>7287</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>7214</v>
+        <v>7213</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>7205</v>
+        <v>7204</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>7201</v>
+        <v>7200</v>
       </c>
       <c r="J18" s="29" t="s">
-        <v>7295</v>
+        <v>7294</v>
       </c>
       <c r="K18" s="1" t="s">
+        <v>7292</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>7293</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>7294</v>
-      </c>
       <c r="M18" s="1" t="s">
-        <v>7231</v>
+        <v>7230</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>7301</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>7252</v>
+        <v>7251</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>7246</v>
+        <v>7245</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>7272</v>
+        <v>7271</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>7148</v>
+        <v>7147</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>7287</v>
+        <v>7286</v>
       </c>
       <c r="G19" t="s">
-        <v>7213</v>
+        <v>7212</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>7205</v>
+        <v>7204</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>7201</v>
+        <v>7200</v>
       </c>
       <c r="J19" s="29" t="s">
-        <v>7295</v>
+        <v>7294</v>
       </c>
       <c r="K19" s="1" t="s">
+        <v>7292</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>7293</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>7294</v>
-      </c>
       <c r="M19" s="1" t="s">
-        <v>7230</v>
+        <v>7229</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>7302</v>
+        <v>7301</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>7251</v>
+        <v>7250</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>7246</v>
+        <v>7245</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>7271</v>
+        <v>7270</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>7148</v>
+        <v>7147</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>7287</v>
+        <v>7286</v>
       </c>
       <c r="G20" t="s">
-        <v>7213</v>
+        <v>7212</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>7205</v>
+        <v>7204</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>7201</v>
+        <v>7200</v>
       </c>
       <c r="J20" s="29" t="s">
-        <v>7295</v>
+        <v>7294</v>
       </c>
       <c r="K20" s="1" t="s">
+        <v>7292</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>7293</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>7294</v>
-      </c>
       <c r="M20" s="1" t="s">
-        <v>7230</v>
+        <v>7229</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>7302</v>
+        <v>7301</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>7250</v>
+        <v>7249</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>7246</v>
+        <v>7245</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>7270</v>
+        <v>7269</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>7148</v>
+        <v>7147</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>7287</v>
+        <v>7286</v>
       </c>
       <c r="G21" t="s">
-        <v>7213</v>
+        <v>7212</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>7205</v>
+        <v>7204</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>7201</v>
+        <v>7200</v>
       </c>
       <c r="J21" s="29" t="s">
-        <v>7295</v>
+        <v>7294</v>
       </c>
       <c r="K21" s="1" t="s">
+        <v>7292</v>
+      </c>
+      <c r="L21" s="1" t="s">
         <v>7293</v>
       </c>
-      <c r="L21" s="1" t="s">
-        <v>7294</v>
-      </c>
       <c r="M21" s="1" t="s">
-        <v>7231</v>
+        <v>7230</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>7301</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>7249</v>
+        <v>7248</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>7246</v>
+        <v>7245</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>7269</v>
+        <v>7268</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>7148</v>
+        <v>7147</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>7215</v>
+        <v>7214</v>
       </c>
       <c r="G22" t="s">
-        <v>7212</v>
+        <v>7211</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>7205</v>
+        <v>7204</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>7201</v>
+        <v>7200</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>7295</v>
+        <v>7294</v>
       </c>
       <c r="K22" s="1" t="s">
+        <v>7292</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>7293</v>
       </c>
-      <c r="L22" s="1" t="s">
-        <v>7294</v>
-      </c>
       <c r="M22" s="1" t="s">
-        <v>7230</v>
+        <v>7229</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>7302</v>
+        <v>7301</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>7248</v>
+        <v>7247</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>7246</v>
+        <v>7245</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>7268</v>
+        <v>7267</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>7148</v>
+        <v>7147</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>7215</v>
+        <v>7214</v>
       </c>
       <c r="G23" t="s">
-        <v>7212</v>
+        <v>7211</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>7205</v>
+        <v>7204</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>7201</v>
+        <v>7200</v>
       </c>
       <c r="J23" s="29" t="s">
-        <v>7295</v>
+        <v>7294</v>
       </c>
       <c r="K23" s="1" t="s">
+        <v>7292</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>7293</v>
       </c>
-      <c r="L23" s="1" t="s">
-        <v>7294</v>
-      </c>
       <c r="M23" s="1" t="s">
-        <v>7230</v>
+        <v>7229</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>7302</v>
+        <v>7301</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>7247</v>
+        <v>7246</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>7246</v>
+        <v>7245</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>7267</v>
+        <v>7266</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>7148</v>
+        <v>7147</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>7215</v>
+        <v>7214</v>
       </c>
       <c r="G24" t="s">
-        <v>7212</v>
+        <v>7211</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>7205</v>
+        <v>7204</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>7201</v>
+        <v>7200</v>
       </c>
       <c r="J24" s="29" t="s">
-        <v>7295</v>
+        <v>7294</v>
       </c>
       <c r="K24" s="1" t="s">
+        <v>7292</v>
+      </c>
+      <c r="L24" s="1" t="s">
         <v>7293</v>
       </c>
-      <c r="L24" s="1" t="s">
-        <v>7294</v>
-      </c>
       <c r="M24" s="1" t="s">
-        <v>7231</v>
+        <v>7230</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>7301</v>
+        <v>7300</v>
       </c>
     </row>
   </sheetData>
@@ -25654,19 +25788,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
+        <v>7339</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>7340</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="C3" s="14" t="s">
+        <v>7343</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>7341</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>7344</v>
-      </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>7342</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>7343</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -25699,7 +25833,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -25756,10 +25890,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>7318</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7319</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7320</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>78</v>
@@ -25800,10 +25934,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="14" t="s">
+        <v>7159</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>7160</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>7161</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>78</v>
@@ -25899,10 +26033,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>7068</v>
+        <v>7071</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7072</v>
+        <v>7074</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>7060</v>
@@ -25910,101 +26044,101 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="14" t="s">
+        <v>7076</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>7077</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7078</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>7068</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7072</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7060</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="14" t="s">
         <v>7065</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>7073</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>7060</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="14" t="s">
-        <v>7390</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>7391</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>7349</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>7351</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>7350</v>
+      <c r="A22" s="14" t="s">
+        <v>7388</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>7352</v>
-      </c>
-      <c r="C22" s="1" t="s">
+        <v>7389</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>7071</v>
+        <v>7348</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>7074</v>
+        <v>7350</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>7060</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="14" t="s">
-        <v>7077</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>7078</v>
+      <c r="A24" s="1" t="s">
+        <v>7349</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>7351</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>7079</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="14" t="s">
-        <v>7080</v>
+        <v>7079</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>7089</v>
+        <v>7088</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>7079</v>
+        <v>7078</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="14" t="s">
+        <v>7097</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>7098</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>7099</v>
-      </c>
       <c r="C26" s="14" t="s">
-        <v>7079</v>
+        <v>7078</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="14" t="s">
-        <v>7086</v>
+        <v>7085</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>7090</v>
+        <v>7089</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>7079</v>
+        <v>7078</v>
       </c>
     </row>
   </sheetData>
@@ -26019,11 +26153,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J107"/>
+  <dimension ref="A1:J109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E55" sqref="E55"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -26352,13 +26486,13 @@
         <v>59</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>7319</v>
+        <v>7318</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>7321</v>
+        <v>7320</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>7328</v>
+        <v>7327</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>79</v>
@@ -26430,7 +26564,7 @@
         <v>138</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>7185</v>
+        <v>7184</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>90</v>
@@ -26528,7 +26662,7 @@
         <v>90</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>7174</v>
+        <v>7173</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -26539,13 +26673,13 @@
         <v>59</v>
       </c>
       <c r="C21" s="14" t="s">
+        <v>7161</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>7162</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>7163</v>
-      </c>
       <c r="E21" s="14" t="s">
-        <v>7166</v>
+        <v>7165</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>79</v>
@@ -26562,13 +26696,13 @@
         <v>59</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>7162</v>
+        <v>7161</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>7164</v>
+        <v>7163</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>7167</v>
+        <v>7166</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>80</v>
@@ -26585,13 +26719,13 @@
         <v>59</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>7162</v>
+        <v>7161</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>7168</v>
+        <v>7167</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>86</v>
@@ -26608,13 +26742,13 @@
         <v>59</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>7162</v>
+        <v>7161</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>7165</v>
+        <v>7164</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>7169</v>
+        <v>7168</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>87</v>
@@ -26623,7 +26757,7 @@
         <v>78</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>7174</v>
+        <v>7173</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
@@ -26775,7 +26909,7 @@
         <v>106</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>7115</v>
+        <v>7114</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>144</v>
@@ -26968,7 +27102,7 @@
         <v>157</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>7148</v>
+        <v>7147</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>170</v>
@@ -26991,7 +27125,7 @@
         <v>158</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>7149</v>
+        <v>7148</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>171</v>
@@ -27014,7 +27148,7 @@
         <v>159</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>7150</v>
+        <v>7149</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>140</v>
@@ -27037,7 +27171,7 @@
         <v>160</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>7151</v>
+        <v>7150</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>141</v>
@@ -27060,7 +27194,7 @@
         <v>161</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>7152</v>
+        <v>7151</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>172</v>
@@ -27238,13 +27372,13 @@
         <v>59</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>7068</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>7069</v>
+        <v>7071</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>7053</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>79</v>
@@ -27261,13 +27395,13 @@
         <v>59</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>7068</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>7070</v>
+        <v>7071</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>7054</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>7346</v>
+        <v>7061</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>80</v>
@@ -27283,17 +27417,17 @@
       <c r="B53" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="14" t="s">
-        <v>7065</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>7066</v>
+      <c r="C53" s="1" t="s">
+        <v>7071</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>7055</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>7060</v>
+        <v>7062</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>58</v>
@@ -27306,17 +27440,17 @@
       <c r="B54" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="14" t="s">
-        <v>7065</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>7067</v>
+      <c r="C54" s="1" t="s">
+        <v>7071</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>7056</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>7061</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>80</v>
+        <v>7063</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>7064</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>58</v>
@@ -27330,13 +27464,13 @@
         <v>59</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>7390</v>
+        <v>7076</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>145</v>
+        <v>7075</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>81</v>
+        <v>7408</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>79</v>
@@ -27353,13 +27487,13 @@
         <v>59</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>7390</v>
+        <v>7076</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>334</v>
+        <v>7412</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>78</v>
+        <v>7409</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>80</v>
@@ -27376,19 +27510,19 @@
         <v>59</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>7390</v>
+        <v>7076</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>7392</v>
+        <v>7413</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>58</v>
+        <v>7410</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>7184</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
@@ -27399,19 +27533,19 @@
         <v>59</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>7390</v>
+        <v>7076</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>7393</v>
+        <v>7414</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>58</v>
+        <v>7411</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>7064</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
@@ -27421,17 +27555,17 @@
       <c r="B59" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="14" t="s">
-        <v>7390</v>
+      <c r="C59" s="1" t="s">
+        <v>7068</v>
       </c>
       <c r="D59" s="15" t="s">
+        <v>7069</v>
+      </c>
+      <c r="E59" s="14" t="s">
         <v>7395</v>
       </c>
-      <c r="E59" s="14" t="s">
-        <v>344</v>
-      </c>
       <c r="F59" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>58</v>
@@ -27444,17 +27578,17 @@
       <c r="B60" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="14" t="s">
-        <v>7390</v>
+      <c r="C60" s="1" t="s">
+        <v>7068</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>7394</v>
+        <v>7070</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="F60" s="14" t="s">
-        <v>7185</v>
+        <v>7396</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>58</v>
@@ -27467,14 +27601,14 @@
       <c r="B61" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>7349</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>7356</v>
+      <c r="C61" s="14" t="s">
+        <v>7065</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>7066</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>7353</v>
+        <v>7060</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>79</v>
@@ -27490,14 +27624,14 @@
       <c r="B62" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>7349</v>
+      <c r="C62" s="14" t="s">
+        <v>7065</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>7357</v>
+        <v>7067</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>7354</v>
+        <v>7061</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>80</v>
@@ -27513,17 +27647,17 @@
       <c r="B63" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>7349</v>
+      <c r="C63" s="14" t="s">
+        <v>7388</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>7358</v>
+        <v>145</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>7355</v>
+        <v>81</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>58</v>
@@ -27536,17 +27670,17 @@
       <c r="B64" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>7350</v>
+      <c r="C64" s="14" t="s">
+        <v>7388</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>7364</v>
+        <v>334</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>7359</v>
+        <v>78</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>58</v>
@@ -27559,17 +27693,17 @@
       <c r="B65" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>7350</v>
+      <c r="C65" s="14" t="s">
+        <v>7388</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>7365</v>
+        <v>7390</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>7360</v>
+        <v>92</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>58</v>
@@ -27582,17 +27716,17 @@
       <c r="B66" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>7350</v>
+      <c r="C66" s="14" t="s">
+        <v>7388</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>7366</v>
+        <v>7391</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>7361</v>
+        <v>130</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>58</v>
@@ -27605,17 +27739,17 @@
       <c r="B67" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>7350</v>
+      <c r="C67" s="14" t="s">
+        <v>7388</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>7367</v>
+        <v>7393</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>7362</v>
-      </c>
-      <c r="F67" s="14" t="s">
-        <v>7064</v>
+        <v>344</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>58</v>
@@ -27628,17 +27762,17 @@
       <c r="B68" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>7350</v>
+      <c r="C68" s="14" t="s">
+        <v>7388</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>7368</v>
+        <v>7392</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>7363</v>
+        <v>345</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>7097</v>
+        <v>7184</v>
       </c>
       <c r="G68" s="7" t="s">
         <v>58</v>
@@ -27652,16 +27786,16 @@
         <v>59</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>7350</v>
-      </c>
-      <c r="D69" s="15" t="s">
-        <v>7372</v>
+        <v>7348</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>7355</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>7369</v>
-      </c>
-      <c r="F69" s="14" t="s">
-        <v>7169</v>
+        <v>7352</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="G69" s="7" t="s">
         <v>58</v>
@@ -27675,16 +27809,16 @@
         <v>59</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>7350</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>7373</v>
+        <v>7348</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>7356</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>7370</v>
-      </c>
-      <c r="F70" s="14" t="s">
-        <v>7383</v>
+        <v>7353</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>58</v>
@@ -27698,16 +27832,16 @@
         <v>59</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>7350</v>
+        <v>7348</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>7374</v>
+        <v>7357</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>7371</v>
-      </c>
-      <c r="F71" s="14" t="s">
-        <v>227</v>
+        <v>7354</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>58</v>
@@ -27721,16 +27855,16 @@
         <v>59</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>7350</v>
+        <v>7349</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>7379</v>
+        <v>7363</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>7375</v>
-      </c>
-      <c r="F72" s="14" t="s">
-        <v>7384</v>
+        <v>7358</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>58</v>
@@ -27744,16 +27878,16 @@
         <v>59</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>7350</v>
+        <v>7349</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>7380</v>
+        <v>7364</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>7376</v>
-      </c>
-      <c r="F73" s="14" t="s">
-        <v>7385</v>
+        <v>7359</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>58</v>
@@ -27767,16 +27901,16 @@
         <v>59</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>7350</v>
+        <v>7349</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>7381</v>
+        <v>7365</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>7377</v>
-      </c>
-      <c r="F74" s="14" t="s">
-        <v>7386</v>
+        <v>7360</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="G74" s="7" t="s">
         <v>58</v>
@@ -27790,16 +27924,16 @@
         <v>59</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>7350</v>
+        <v>7349</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>7382</v>
+        <v>7366</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>7378</v>
+        <v>7361</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>7387</v>
+        <v>7064</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>58</v>
@@ -27813,16 +27947,16 @@
         <v>59</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>7071</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>7053</v>
+        <v>7349</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>7367</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>79</v>
+        <v>7362</v>
+      </c>
+      <c r="F76" s="14" t="s">
+        <v>7096</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>58</v>
@@ -27836,16 +27970,16 @@
         <v>59</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>7071</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>7054</v>
+        <v>7349</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>7371</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>7061</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>80</v>
+        <v>7368</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>7168</v>
       </c>
       <c r="G77" s="7" t="s">
         <v>58</v>
@@ -27859,16 +27993,16 @@
         <v>59</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>7071</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>7055</v>
+        <v>7349</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>7394</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>7062</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>86</v>
+        <v>7369</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>7381</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>58</v>
@@ -27882,16 +28016,16 @@
         <v>59</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>7071</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>7056</v>
+        <v>7349</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>7372</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>7063</v>
+        <v>7370</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>7064</v>
+        <v>227</v>
       </c>
       <c r="G79" s="7" t="s">
         <v>58</v>
@@ -27904,17 +28038,17 @@
       <c r="B80" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C80" s="14" t="s">
-        <v>7077</v>
+      <c r="C80" s="1" t="s">
+        <v>7349</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>7075</v>
+        <v>7377</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>79</v>
+        <v>7373</v>
+      </c>
+      <c r="F80" s="14" t="s">
+        <v>7382</v>
       </c>
       <c r="G80" s="7" t="s">
         <v>58</v>
@@ -27927,17 +28061,17 @@
       <c r="B81" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C81" s="14" t="s">
-        <v>7077</v>
+      <c r="C81" s="1" t="s">
+        <v>7349</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>7076</v>
+        <v>7378</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>80</v>
+        <v>7374</v>
+      </c>
+      <c r="F81" s="14" t="s">
+        <v>7383</v>
       </c>
       <c r="G81" s="7" t="s">
         <v>58</v>
@@ -27950,23 +28084,20 @@
       <c r="B82" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C82" s="14" t="s">
-        <v>7080</v>
+      <c r="C82" s="1" t="s">
+        <v>7349</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>7082</v>
+        <v>7379</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>79</v>
+        <v>7375</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>7384</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="H82" s="14" t="s">
-        <v>7089</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.15">
@@ -27976,17 +28107,17 @@
       <c r="B83" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C83" s="14" t="s">
-        <v>7080</v>
+      <c r="C83" s="1" t="s">
+        <v>7349</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>7085</v>
+        <v>7380</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>7153</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>80</v>
+        <v>7376</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>7385</v>
       </c>
       <c r="G83" s="7" t="s">
         <v>58</v>
@@ -28000,19 +28131,22 @@
         <v>59</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>7080</v>
+        <v>7079</v>
       </c>
       <c r="D84" s="15" t="s">
         <v>7081</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>7154</v>
+        <v>135</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G84" s="7" t="s">
         <v>58</v>
+      </c>
+      <c r="H84" s="14" t="s">
+        <v>7088</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.15">
@@ -28023,16 +28157,16 @@
         <v>59</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>7080</v>
+        <v>7079</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>7083</v>
+        <v>7084</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>7155</v>
-      </c>
-      <c r="F85" s="14" t="s">
-        <v>7064</v>
+        <v>7152</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>58</v>
@@ -28046,16 +28180,16 @@
         <v>59</v>
       </c>
       <c r="C86" s="14" t="s">
+        <v>7079</v>
+      </c>
+      <c r="D86" s="15" t="s">
         <v>7080</v>
       </c>
-      <c r="D86" s="15" t="s">
-        <v>7084</v>
-      </c>
       <c r="E86" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="F86" s="14" t="s">
-        <v>7097</v>
+        <v>7153</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="G86" s="7" t="s">
         <v>58</v>
@@ -28069,19 +28203,19 @@
         <v>59</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>7098</v>
+        <v>7079</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>7100</v>
+        <v>7082</v>
       </c>
       <c r="E87" s="14" t="s">
-        <v>7079</v>
+        <v>7154</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>7102</v>
-      </c>
-      <c r="G87" s="14" t="s">
-        <v>7079</v>
+        <v>7064</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.15">
@@ -28092,19 +28226,19 @@
         <v>59</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>7098</v>
+        <v>7079</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>7101</v>
+        <v>7083</v>
       </c>
       <c r="E88" s="14" t="s">
-        <v>7093</v>
+        <v>137</v>
       </c>
       <c r="F88" s="14" t="s">
-        <v>7103</v>
-      </c>
-      <c r="G88" s="14" t="s">
-        <v>7079</v>
+        <v>7096</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.15">
@@ -28115,21 +28249,20 @@
         <v>59</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>7086</v>
+        <v>7097</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>7091</v>
+        <v>7099</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>7092</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H89" s="14"/>
+        <v>7078</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>7101</v>
+      </c>
+      <c r="G89" s="14" t="s">
+        <v>7078</v>
+      </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A90" s="7" t="s">
@@ -28139,21 +28272,20 @@
         <v>59</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>7086</v>
+        <v>7097</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>7087</v>
+        <v>7100</v>
       </c>
       <c r="E90" s="14" t="s">
-        <v>7079</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H90" s="14"/>
+        <v>7092</v>
+      </c>
+      <c r="F90" s="14" t="s">
+        <v>7102</v>
+      </c>
+      <c r="G90" s="14" t="s">
+        <v>7078</v>
+      </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A91" s="7" t="s">
@@ -28163,20 +28295,21 @@
         <v>59</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>7086</v>
+        <v>7085</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>7088</v>
+        <v>7090</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>7093</v>
+        <v>7091</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>58</v>
       </c>
+      <c r="H91" s="14"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A92" s="7" t="s">
@@ -28186,23 +28319,21 @@
         <v>59</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>7125</v>
+        <v>7085</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>7105</v>
+        <v>7086</v>
       </c>
       <c r="E92" s="14" t="s">
-        <v>7079</v>
+        <v>7078</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H92" s="14" t="s">
-        <v>7104</v>
-      </c>
+      <c r="H92" s="14"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A93" s="7" t="s">
@@ -28212,16 +28343,16 @@
         <v>59</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>7125</v>
+        <v>7085</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>7106</v>
+        <v>7087</v>
       </c>
       <c r="E93" s="14" t="s">
-        <v>7093</v>
+        <v>7092</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>58</v>
@@ -28235,19 +28366,22 @@
         <v>59</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>7125</v>
+        <v>7124</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>7107</v>
+        <v>7104</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>7094</v>
+        <v>7078</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G94" s="7" t="s">
         <v>58</v>
+      </c>
+      <c r="H94" s="14" t="s">
+        <v>7103</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.15">
@@ -28258,22 +28392,19 @@
         <v>59</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>7126</v>
+        <v>7124</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>7108</v>
+        <v>7105</v>
       </c>
       <c r="E95" s="14" t="s">
-        <v>7079</v>
+        <v>7092</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G95" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="H95" s="14" t="s">
-        <v>7112</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.15">
@@ -28284,16 +28415,16 @@
         <v>59</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>7126</v>
+        <v>7124</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>7109</v>
+        <v>7106</v>
       </c>
       <c r="E96" s="14" t="s">
         <v>7093</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G96" s="7" t="s">
         <v>58</v>
@@ -28307,19 +28438,22 @@
         <v>59</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>7126</v>
+        <v>7125</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>7110</v>
+        <v>7107</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>7094</v>
+        <v>7078</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G97" s="7" t="s">
         <v>58</v>
+      </c>
+      <c r="H97" s="14" t="s">
+        <v>7111</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.15">
@@ -28330,16 +28464,16 @@
         <v>59</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>7126</v>
+        <v>7125</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>7111</v>
+        <v>7108</v>
       </c>
       <c r="E98" s="14" t="s">
-        <v>7095</v>
-      </c>
-      <c r="F98" s="14" t="s">
-        <v>7131</v>
+        <v>7092</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="G98" s="7" t="s">
         <v>58</v>
@@ -28353,22 +28487,19 @@
         <v>59</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>7127</v>
+        <v>7125</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>7114</v>
+        <v>7109</v>
       </c>
       <c r="E99" s="14" t="s">
-        <v>7079</v>
+        <v>7093</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G99" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="H99" s="14" t="s">
-        <v>7113</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.15">
@@ -28379,16 +28510,16 @@
         <v>59</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>7127</v>
+        <v>7125</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>7115</v>
+        <v>7110</v>
       </c>
       <c r="E100" s="14" t="s">
-        <v>7093</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>80</v>
+        <v>7094</v>
+      </c>
+      <c r="F100" s="14" t="s">
+        <v>7130</v>
       </c>
       <c r="G100" s="7" t="s">
         <v>58</v>
@@ -28402,19 +28533,22 @@
         <v>59</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>7127</v>
+        <v>7126</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>7116</v>
+        <v>7113</v>
       </c>
       <c r="E101" s="14" t="s">
-        <v>7094</v>
+        <v>7078</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G101" s="7" t="s">
         <v>58</v>
+      </c>
+      <c r="H101" s="14" t="s">
+        <v>7112</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.15">
@@ -28425,16 +28559,16 @@
         <v>59</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>7127</v>
+        <v>7126</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>7117</v>
+        <v>7114</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>7095</v>
-      </c>
-      <c r="F102" s="14" t="s">
-        <v>7131</v>
+        <v>7092</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="G102" s="7" t="s">
         <v>58</v>
@@ -28448,22 +28582,19 @@
         <v>59</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>7128</v>
+        <v>7126</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>7118</v>
+        <v>7115</v>
       </c>
       <c r="E103" s="14" t="s">
-        <v>7092</v>
+        <v>7093</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G103" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="H103" s="14" t="s">
-        <v>7124</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.15">
@@ -28474,16 +28605,16 @@
         <v>59</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>7128</v>
+        <v>7126</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>7119</v>
+        <v>7116</v>
       </c>
       <c r="E104" s="14" t="s">
-        <v>7079</v>
-      </c>
-      <c r="F104" s="7" t="s">
-        <v>80</v>
+        <v>7094</v>
+      </c>
+      <c r="F104" s="14" t="s">
+        <v>7130</v>
       </c>
       <c r="G104" s="7" t="s">
         <v>58</v>
@@ -28497,39 +28628,42 @@
         <v>59</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>7128</v>
+        <v>7127</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>7120</v>
+        <v>7117</v>
       </c>
       <c r="E105" s="14" t="s">
-        <v>7095</v>
+        <v>7091</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G105" s="7" t="s">
         <v>58</v>
       </c>
+      <c r="H105" s="14" t="s">
+        <v>7123</v>
+      </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A106" s="14" t="s">
+      <c r="A106" s="7" t="s">
         <v>83</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>7128</v>
+        <v>7127</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>7121</v>
+        <v>7118</v>
       </c>
       <c r="E106" s="14" t="s">
-        <v>7096</v>
-      </c>
-      <c r="F106" s="14" t="s">
-        <v>7131</v>
+        <v>7078</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="G106" s="7" t="s">
         <v>58</v>
@@ -28543,18 +28677,64 @@
         <v>59</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>7128</v>
+        <v>7127</v>
       </c>
       <c r="D107" s="15" t="s">
+        <v>7119</v>
+      </c>
+      <c r="E107" s="14" t="s">
+        <v>7094</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A108" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>7127</v>
+      </c>
+      <c r="D108" s="15" t="s">
+        <v>7120</v>
+      </c>
+      <c r="E108" s="14" t="s">
+        <v>7095</v>
+      </c>
+      <c r="F108" s="14" t="s">
+        <v>7130</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A109" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>7127</v>
+      </c>
+      <c r="D109" s="15" t="s">
+        <v>7121</v>
+      </c>
+      <c r="E109" s="14" t="s">
         <v>7122</v>
       </c>
-      <c r="E107" s="14" t="s">
-        <v>7123</v>
-      </c>
-      <c r="F107" s="14" t="s">
-        <v>7132</v>
-      </c>
-      <c r="G107" s="7" t="s">
+      <c r="F109" s="14" t="s">
+        <v>7131</v>
+      </c>
+      <c r="G109" s="7" t="s">
         <v>58</v>
       </c>
     </row>
@@ -28567,11 +28747,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K41" sqref="K41"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -28616,7 +28796,7 @@
         <v>180</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>7156</v>
+        <v>7155</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>182</v>
@@ -28727,7 +28907,7 @@
         <v>80</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>7191</v>
+        <v>7190</v>
       </c>
       <c r="L4" s="10" t="s">
         <v>281</v>
@@ -28814,10 +28994,10 @@
         <v>385</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>7178</v>
+        <v>7177</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>7184</v>
+        <v>7183</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>92</v>
@@ -28826,7 +29006,7 @@
         <v>80</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>7179</v>
+        <v>7178</v>
       </c>
       <c r="N7" s="10" t="s">
         <v>78</v>
@@ -28846,10 +29026,10 @@
         <v>385</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>7176</v>
+        <v>7175</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>7185</v>
+        <v>7184</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>92</v>
@@ -28858,7 +29038,7 @@
         <v>80</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>7177</v>
+        <v>7176</v>
       </c>
       <c r="N8" s="10" t="s">
         <v>78</v>
@@ -28878,10 +29058,10 @@
         <v>385</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>7181</v>
+        <v>7180</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>7184</v>
+        <v>7183</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>92</v>
@@ -28890,7 +29070,7 @@
         <v>80</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>7182</v>
+        <v>7181</v>
       </c>
       <c r="N9" s="10" t="s">
         <v>78</v>
@@ -28910,10 +29090,10 @@
         <v>385</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>7180</v>
+        <v>7179</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>7186</v>
+        <v>7185</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>92</v>
@@ -28922,7 +29102,7 @@
         <v>80</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>7183</v>
+        <v>7182</v>
       </c>
       <c r="N10" s="10" t="s">
         <v>78</v>
@@ -28942,7 +29122,7 @@
         <v>287</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>7133</v>
+        <v>7132</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>86</v>
@@ -28951,7 +29131,7 @@
         <v>181</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>7157</v>
+        <v>7156</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>268</v>
@@ -28986,7 +29166,7 @@
         <v>363</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>7157</v>
+        <v>7156</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>379</v>
@@ -29018,7 +29198,7 @@
         <v>363</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>7157</v>
+        <v>7156</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>368</v>
@@ -29050,7 +29230,7 @@
         <v>181</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>7157</v>
+        <v>7156</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>269</v>
@@ -29085,7 +29265,7 @@
         <v>363</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>7157</v>
+        <v>7156</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>376</v>
@@ -29117,7 +29297,7 @@
         <v>363</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>7157</v>
+        <v>7156</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>377</v>
@@ -29149,7 +29329,7 @@
         <v>181</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>7157</v>
+        <v>7156</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>267</v>
@@ -29184,7 +29364,7 @@
         <v>363</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>7157</v>
+        <v>7156</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>383</v>
@@ -29216,7 +29396,7 @@
         <v>363</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>7157</v>
+        <v>7156</v>
       </c>
       <c r="K19" s="10" t="s">
         <v>384</v>
@@ -29286,10 +29466,10 @@
         <v>271</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>7310</v>
+        <v>7309</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>7338</v>
+        <v>7337</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>181</v>
@@ -29309,7 +29489,7 @@
         <v>246</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>7164</v>
+        <v>7163</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>278</v>
@@ -29324,7 +29504,7 @@
         <v>273</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>7175</v>
+        <v>7174</v>
       </c>
       <c r="L22" s="10" t="s">
         <v>283</v>
@@ -29350,19 +29530,19 @@
         <v>7</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>7185</v>
+        <v>7184</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>78</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>7158</v>
+        <v>7157</v>
       </c>
       <c r="I23" s="14" t="s">
         <v>272</v>
       </c>
       <c r="K23" s="28" t="s">
-        <v>7309</v>
+        <v>7308</v>
       </c>
       <c r="L23" s="10" t="s">
         <v>207</v>
@@ -29394,7 +29574,7 @@
         <v>181</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>7157</v>
+        <v>7156</v>
       </c>
       <c r="L24" s="10" t="s">
         <v>194</v>
@@ -29426,13 +29606,13 @@
         <v>181</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>7158</v>
+        <v>7157</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>188</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>7134</v>
+        <v>7133</v>
       </c>
       <c r="L25" s="10" t="s">
         <v>195</v>
@@ -29464,13 +29644,13 @@
         <v>181</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>7158</v>
+        <v>7157</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>189</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>7135</v>
+        <v>7134</v>
       </c>
       <c r="L26" s="10" t="s">
         <v>196</v>
@@ -29508,7 +29688,7 @@
         <v>190</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>7136</v>
+        <v>7135</v>
       </c>
       <c r="L27" s="10" t="s">
         <v>197</v>
@@ -29525,7 +29705,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>7144</v>
+        <v>7143</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>82</v>
@@ -29540,7 +29720,7 @@
         <v>181</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>7157</v>
+        <v>7156</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>191</v>
@@ -29564,10 +29744,10 @@
         <v>83</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>7144</v>
+        <v>7143</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>7140</v>
+        <v>7139</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>79</v>
@@ -29579,7 +29759,7 @@
         <v>87</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>7138</v>
+        <v>7137</v>
       </c>
       <c r="N29" s="10" t="s">
         <v>78</v>
@@ -29596,10 +29776,10 @@
         <v>83</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>7144</v>
+        <v>7143</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>7141</v>
+        <v>7140</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>80</v>
@@ -29608,10 +29788,10 @@
         <v>92</v>
       </c>
       <c r="H30" s="26" t="s">
-        <v>7158</v>
+        <v>7157</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>7139</v>
+        <v>7138</v>
       </c>
       <c r="N30" s="10" t="s">
         <v>78</v>
@@ -29628,10 +29808,10 @@
         <v>83</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>7144</v>
+        <v>7143</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>7142</v>
+        <v>7141</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>86</v>
@@ -29640,10 +29820,10 @@
         <v>92</v>
       </c>
       <c r="H31" s="27" t="s">
-        <v>7157</v>
+        <v>7156</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>7172</v>
+        <v>7171</v>
       </c>
       <c r="N31" s="10" t="s">
         <v>78</v>
@@ -29660,10 +29840,10 @@
         <v>83</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>7144</v>
+        <v>7143</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>7143</v>
+        <v>7142</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>87</v>
@@ -29672,10 +29852,10 @@
         <v>92</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>7157</v>
+        <v>7156</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>7173</v>
+        <v>7172</v>
       </c>
       <c r="N32" s="10" t="s">
         <v>78</v>
@@ -29704,16 +29884,16 @@
         <v>181</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>7157</v>
+        <v>7156</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>192</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>7137</v>
+        <v>7136</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>7325</v>
+        <v>7324</v>
       </c>
       <c r="N33" s="10" t="s">
         <v>181</v>
@@ -29733,10 +29913,10 @@
         <v>82</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>7322</v>
+        <v>7321</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>7169</v>
+        <v>7168</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>78</v>
@@ -29745,10 +29925,10 @@
         <v>226</v>
       </c>
       <c r="I34" s="14" t="s">
+        <v>7322</v>
+      </c>
+      <c r="K34" s="14" t="s">
         <v>7323</v>
-      </c>
-      <c r="K34" s="14" t="s">
-        <v>7324</v>
       </c>
       <c r="L34" s="14" t="s">
         <v>199</v>
@@ -29771,10 +29951,10 @@
         <v>82</v>
       </c>
       <c r="E35" s="17" t="s">
+        <v>7325</v>
+      </c>
+      <c r="F35" s="14" t="s">
         <v>7326</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>7327</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>78</v>
@@ -29783,11 +29963,11 @@
         <v>226</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>7195</v>
+        <v>7194</v>
       </c>
       <c r="K35" s="14"/>
       <c r="L35" s="14" t="s">
-        <v>7194</v>
+        <v>7193</v>
       </c>
       <c r="N35" s="10" t="s">
         <v>78</v>
@@ -29810,13 +29990,13 @@
         <v>218</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>7187</v>
+        <v>7186</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>78</v>
       </c>
       <c r="H36" s="27" t="s">
-        <v>7157</v>
+        <v>7156</v>
       </c>
       <c r="L36" s="10" t="s">
         <v>238</v>
@@ -29848,13 +30028,13 @@
         <v>78</v>
       </c>
       <c r="H37" s="27" t="s">
-        <v>7157</v>
+        <v>7156</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>216</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>7347</v>
+        <v>7346</v>
       </c>
       <c r="L37" s="10" t="s">
         <v>280</v>
@@ -29886,13 +30066,13 @@
         <v>78</v>
       </c>
       <c r="H38" s="26" t="s">
-        <v>7158</v>
+        <v>7157</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>7329</v>
+        <v>7328</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>7335</v>
+        <v>7334</v>
       </c>
       <c r="L38" s="10" t="s">
         <v>213</v>
@@ -29924,13 +30104,13 @@
         <v>78</v>
       </c>
       <c r="H39" s="26" t="s">
-        <v>7158</v>
+        <v>7157</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>7330</v>
+        <v>7329</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>7334</v>
+        <v>7333</v>
       </c>
       <c r="L39" s="10" t="s">
         <v>215</v>
@@ -29953,7 +30133,7 @@
         <v>245</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>7332</v>
+        <v>7331</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>352</v>
@@ -29965,13 +30145,13 @@
         <v>226</v>
       </c>
       <c r="I40" s="14" t="s">
+        <v>7335</v>
+      </c>
+      <c r="K40" s="14" t="s">
         <v>7336</v>
       </c>
-      <c r="K40" s="14" t="s">
-        <v>7337</v>
-      </c>
       <c r="L40" s="14" t="s">
-        <v>7333</v>
+        <v>7332</v>
       </c>
       <c r="N40" s="10" t="s">
         <v>78</v>
@@ -30000,13 +30180,13 @@
         <v>78</v>
       </c>
       <c r="H41" s="26" t="s">
-        <v>7158</v>
+        <v>7157</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>7388</v>
+        <v>7386</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>7389</v>
+        <v>7387</v>
       </c>
       <c r="L41" s="10" t="s">
         <v>219</v>
@@ -30032,19 +30212,19 @@
         <v>259</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>7331</v>
+        <v>7330</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>181</v>
       </c>
       <c r="H42" s="27" t="s">
-        <v>7157</v>
+        <v>7156</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>284</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>7348</v>
+        <v>7347</v>
       </c>
       <c r="L42" s="10" t="s">
         <v>279</v>
@@ -30058,7 +30238,7 @@
         <v>77</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>7339</v>
+        <v>7338</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>247</v>
@@ -30070,13 +30250,13 @@
         <v>208</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>7188</v>
+        <v>7187</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>78</v>
       </c>
       <c r="H43" s="26" t="s">
-        <v>7158</v>
+        <v>7157</v>
       </c>
       <c r="L43" s="10" t="s">
         <v>209</v>
@@ -30090,7 +30270,7 @@
         <v>77</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>7339</v>
+        <v>7338</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>237</v>
@@ -30108,13 +30288,13 @@
         <v>78</v>
       </c>
       <c r="H44" s="26" t="s">
-        <v>7158</v>
+        <v>7157</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>210</v>
       </c>
       <c r="K44" s="14" t="s">
-        <v>7189</v>
+        <v>7188</v>
       </c>
       <c r="L44" s="10" t="s">
         <v>209</v>
@@ -30128,7 +30308,7 @@
         <v>77</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>7339</v>
+        <v>7338</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>248</v>
@@ -30146,7 +30326,7 @@
         <v>78</v>
       </c>
       <c r="H45" s="26" t="s">
-        <v>7158</v>
+        <v>7157</v>
       </c>
       <c r="L45" s="10" t="s">
         <v>220</v>
@@ -30160,7 +30340,7 @@
         <v>77</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>7339</v>
+        <v>7338</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>237</v>
@@ -30178,7 +30358,7 @@
         <v>78</v>
       </c>
       <c r="H46" s="26" t="s">
-        <v>7158</v>
+        <v>7157</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>299</v>
@@ -30195,7 +30375,7 @@
         <v>77</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>7339</v>
+        <v>7338</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>237</v>
@@ -30213,7 +30393,7 @@
         <v>78</v>
       </c>
       <c r="H47" s="26" t="s">
-        <v>7158</v>
+        <v>7157</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>300</v>
@@ -30230,7 +30410,7 @@
         <v>77</v>
       </c>
       <c r="B48" s="32" t="s">
-        <v>7345</v>
+        <v>7344</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>237</v>
@@ -30248,7 +30428,7 @@
         <v>78</v>
       </c>
       <c r="H48" s="26" t="s">
-        <v>7158</v>
+        <v>7157</v>
       </c>
       <c r="I48" s="10" t="s">
         <v>239</v>
@@ -30265,7 +30445,7 @@
         <v>77</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>7339</v>
+        <v>7338</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>250</v>
@@ -30283,7 +30463,7 @@
         <v>78</v>
       </c>
       <c r="H49" s="26" t="s">
-        <v>7158</v>
+        <v>7157</v>
       </c>
       <c r="N49" s="10" t="s">
         <v>78</v>
@@ -30294,7 +30474,7 @@
         <v>77</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>7339</v>
+        <v>7338</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>237</v>
@@ -30312,7 +30492,7 @@
         <v>78</v>
       </c>
       <c r="H50" s="26" t="s">
-        <v>7158</v>
+        <v>7157</v>
       </c>
       <c r="I50" s="10" t="s">
         <v>240</v>
@@ -30326,7 +30506,7 @@
         <v>77</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>7339</v>
+        <v>7338</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>237</v>
@@ -30344,7 +30524,7 @@
         <v>78</v>
       </c>
       <c r="H51" s="26" t="s">
-        <v>7158</v>
+        <v>7157</v>
       </c>
       <c r="I51" s="10" t="s">
         <v>241</v>
@@ -30358,7 +30538,7 @@
         <v>77</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>7339</v>
+        <v>7338</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>249</v>
@@ -30376,7 +30556,7 @@
         <v>78</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>7158</v>
+        <v>7157</v>
       </c>
       <c r="N52" s="10" t="s">
         <v>78</v>
@@ -30387,7 +30567,7 @@
         <v>77</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>7339</v>
+        <v>7338</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>237</v>
@@ -30405,7 +30585,7 @@
         <v>78</v>
       </c>
       <c r="H53" s="26" t="s">
-        <v>7158</v>
+        <v>7157</v>
       </c>
       <c r="I53" s="10" t="s">
         <v>242</v>
@@ -30419,7 +30599,7 @@
         <v>77</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>7339</v>
+        <v>7338</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>237</v>
@@ -30437,7 +30617,7 @@
         <v>78</v>
       </c>
       <c r="H54" s="26" t="s">
-        <v>7158</v>
+        <v>7157</v>
       </c>
       <c r="I54" s="10" t="s">
         <v>243</v>
@@ -30451,7 +30631,7 @@
         <v>77</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>7339</v>
+        <v>7338</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>237</v>
@@ -30469,7 +30649,7 @@
         <v>78</v>
       </c>
       <c r="H55" s="26" t="s">
-        <v>7158</v>
+        <v>7157</v>
       </c>
       <c r="I55" s="10" t="s">
         <v>244</v>
@@ -30483,7 +30663,7 @@
         <v>77</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>7339</v>
+        <v>7338</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>308</v>
@@ -30501,7 +30681,7 @@
         <v>311</v>
       </c>
       <c r="H56" s="26" t="s">
-        <v>7158</v>
+        <v>7157</v>
       </c>
       <c r="N56" s="10" t="s">
         <v>78</v>
@@ -30512,7 +30692,7 @@
         <v>77</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>7339</v>
+        <v>7338</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>83</v>
@@ -30530,7 +30710,7 @@
         <v>312</v>
       </c>
       <c r="H57" s="26" t="s">
-        <v>7158</v>
+        <v>7157</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>331</v>
@@ -30539,10 +30719,164 @@
         <v>78</v>
       </c>
     </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A58" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>7338</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>7407</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>7397</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>7399</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H58" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="L58" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="N58" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A59" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>7338</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>7407</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>7398</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H59" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="I59" s="34" t="s">
+        <v>7401</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A60" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>7338</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>7407</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>7405</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>7064</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H60" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="I60" s="33" t="s">
+        <v>7406</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A61" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>7338</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>7407</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>7402</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H61" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="I61" s="34" t="s">
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A62" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>7338</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>7407</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>7403</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H62" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="I62" s="34" t="s">
+        <v>7404</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I61" r:id="rId1"/>
+    <hyperlink ref="I59" r:id="rId2"/>
+    <hyperlink ref="I62" r:id="rId3"/>
+    <hyperlink ref="I62" r:id="rId4" display="http://jeesite.net"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -30583,7 +30917,7 @@
         <v>177</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>7129</v>
+        <v>7128</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>293</v>
@@ -30591,10 +30925,10 @@
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>7231</v>
+        <v>7230</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7227</v>
+        <v>7226</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>80</v>
@@ -30603,21 +30937,21 @@
         <v>81</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7148</v>
+        <v>7147</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>81</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7227</v>
+        <v>7226</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>7230</v>
+        <v>7229</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7228</v>
+        <v>7227</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>86</v>
@@ -30626,13 +30960,13 @@
         <v>81</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7148</v>
+        <v>7147</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>81</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>7228</v>
+        <v>7227</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -30649,10 +30983,10 @@
         <v>179</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7146</v>
+        <v>7145</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>7130</v>
+        <v>7129</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>294</v>
@@ -30672,10 +31006,10 @@
         <v>179</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7147</v>
+        <v>7146</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>7130</v>
+        <v>7129</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>295</v>
@@ -30730,7 +31064,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>7346</v>
+        <v>7345</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -30739,13 +31073,13 @@
         <v>298</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7146</v>
+        <v>7145</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7145</v>
+        <v>7144</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -30759,7 +31093,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7146</v>
+        <v>7145</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>78</v>
@@ -30800,7 +31134,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7190</v>
+        <v>7189</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>7046</v>
@@ -90252,37 +90586,37 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>7199</v>
+        <v>7198</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>7196</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>7197</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>7198</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>7200</v>
+        <v>7199</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>7204</v>
+        <v>7203</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7203</v>
+        <v>7202</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7203</v>
+        <v>7202</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>80</v>
@@ -90294,16 +90628,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>7205</v>
+        <v>7204</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7204</v>
+        <v>7203</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>7200</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>7201</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7202</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>79</v>
@@ -90314,16 +90648,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>7215</v>
+        <v>7214</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7205</v>
+        <v>7204</v>
       </c>
       <c r="C4" t="s">
-        <v>7212</v>
+        <v>7211</v>
       </c>
       <c r="D4" t="s">
-        <v>7218</v>
+        <v>7217</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>79</v>
@@ -90334,76 +90668,76 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>7216</v>
+        <v>7215</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7205</v>
+        <v>7204</v>
       </c>
       <c r="C5" t="s">
-        <v>7213</v>
+        <v>7212</v>
       </c>
       <c r="D5" t="s">
-        <v>7219</v>
+        <v>7218</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>7210</v>
+        <v>7209</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>7217</v>
+        <v>7216</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7205</v>
+        <v>7204</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7214</v>
+        <v>7213</v>
       </c>
       <c r="D6" t="s">
+        <v>7219</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>7220</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>7221</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>7210</v>
+        <v>7209</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>7205</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>7206</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>7207</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>7208</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7209</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>7211</v>
+        <v>7210</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>7240</v>
+        <v>7239</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7206</v>
+        <v>7205</v>
       </c>
       <c r="C8" t="s">
-        <v>7212</v>
+        <v>7211</v>
       </c>
       <c r="D8" t="s">
-        <v>7243</v>
+        <v>7242</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>79</v>
@@ -90414,16 +90748,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>7241</v>
+        <v>7240</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7206</v>
+        <v>7205</v>
       </c>
       <c r="C9" t="s">
-        <v>7213</v>
+        <v>7212</v>
       </c>
       <c r="D9" t="s">
-        <v>7244</v>
+        <v>7243</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>80</v>
@@ -90434,16 +90768,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>7242</v>
+        <v>7241</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7206</v>
+        <v>7205</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7214</v>
+        <v>7213</v>
       </c>
       <c r="D10" t="s">
-        <v>7245</v>
+        <v>7244</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>86</v>

--- a/modules/core/src/main/java/com/jeesite/modules/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/db/InitCoreData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="763" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="763" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16106" uniqueCount="7415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16110" uniqueCount="7415">
   <si>
     <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26155,7 +26155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
     </sheetView>
@@ -28749,9 +28749,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
+      <selection pane="bottomLeft" activeCell="N62" sqref="N62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -30779,6 +30779,9 @@
       <c r="I59" s="34" t="s">
         <v>7401</v>
       </c>
+      <c r="N59" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A60" s="25" t="s">
@@ -30808,6 +30811,9 @@
       <c r="I60" s="33" t="s">
         <v>7406</v>
       </c>
+      <c r="N60" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A61" s="25" t="s">
@@ -30837,6 +30843,9 @@
       <c r="I61" s="34" t="s">
         <v>7400</v>
       </c>
+      <c r="N61" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A62" s="25" t="s">
@@ -30865,6 +30874,9 @@
       </c>
       <c r="I62" s="34" t="s">
         <v>7404</v>
+      </c>
+      <c r="N62" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
